--- a/G04_participation.xlsx
+++ b/G04_participation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CS2101 G04 Attendance Sheet</t>
   </si>
@@ -41,13 +41,16 @@
     <t>3-2</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
     <t>AARON TAN</t>
   </si>
   <si>
     <t>A0123456U</t>
+  </si>
+  <si>
+    <t>Alice Boey</t>
+  </si>
+  <si>
+    <t>A8765431J</t>
   </si>
   <si>
     <t>BU WEN JIN</t>
@@ -122,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -158,17 +161,14 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="n">
         <v>0.0</v>
       </c>
@@ -185,19 +185,16 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I4" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
@@ -214,19 +211,16 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
@@ -243,19 +237,16 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
@@ -272,19 +263,16 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
@@ -301,38 +289,58 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/G04_participation.xlsx
+++ b/G04_participation.xlsx
@@ -185,7 +185,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -214,7 +214,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -330,7 +330,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
